--- a/analysis/data/sketches_for_skepticism_shortened.xlsx
+++ b/analysis/data/sketches_for_skepticism_shortened.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651D7A0-5AD8-4A49-AFF5-16C66F8FA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE8ECD-C824-4FF5-B22E-1070FB2AF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1104" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -4859,10 +4859,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DE887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AE15" sqref="AE15"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/analysis/data/sketches_for_skepticism_shortened.xlsx
+++ b/analysis/data/sketches_for_skepticism_shortened.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE8ECD-C824-4FF5-B22E-1070FB2AF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA27420-A1D1-4D3E-83D9-629BEADDBD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1104" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -4859,83 +4859,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DE887"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="34.19921875" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1"/>
+    <col min="10" max="10" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="28.09765625" customWidth="1"/>
     <col min="12" max="12" width="34.5" customWidth="1"/>
-    <col min="13" max="13" width="26.625" customWidth="1"/>
+    <col min="13" max="13" width="26.59765625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="15" max="15" width="22.69921875" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="22.375" customWidth="1"/>
-    <col min="18" max="19" width="19.75" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
-    <col min="21" max="21" width="19.25" customWidth="1"/>
-    <col min="22" max="22" width="19.625" customWidth="1"/>
-    <col min="23" max="23" width="22.25" customWidth="1"/>
-    <col min="24" max="24" width="20.125" customWidth="1"/>
-    <col min="25" max="25" width="20.625" customWidth="1"/>
-    <col min="26" max="26" width="46.25" customWidth="1"/>
-    <col min="27" max="27" width="33.375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="49.75" customWidth="1"/>
-    <col min="29" max="29" width="40.875" customWidth="1"/>
-    <col min="30" max="30" width="47.75" customWidth="1"/>
-    <col min="31" max="32" width="38.375" customWidth="1"/>
-    <col min="33" max="35" width="35.125" customWidth="1"/>
-    <col min="36" max="38" width="38.375" customWidth="1"/>
-    <col min="39" max="52" width="59.75" customWidth="1"/>
+    <col min="17" max="17" width="22.3984375" customWidth="1"/>
+    <col min="18" max="19" width="19.69921875" customWidth="1"/>
+    <col min="20" max="20" width="17.69921875" customWidth="1"/>
+    <col min="21" max="21" width="19.19921875" customWidth="1"/>
+    <col min="22" max="22" width="19.59765625" customWidth="1"/>
+    <col min="23" max="23" width="22.19921875" customWidth="1"/>
+    <col min="24" max="24" width="20.09765625" customWidth="1"/>
+    <col min="25" max="25" width="20.59765625" customWidth="1"/>
+    <col min="26" max="26" width="46.19921875" customWidth="1"/>
+    <col min="27" max="27" width="33.3984375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="49.69921875" customWidth="1"/>
+    <col min="29" max="29" width="40.8984375" customWidth="1"/>
+    <col min="30" max="30" width="47.69921875" customWidth="1"/>
+    <col min="31" max="32" width="38.3984375" customWidth="1"/>
+    <col min="33" max="35" width="35.09765625" customWidth="1"/>
+    <col min="36" max="38" width="38.3984375" customWidth="1"/>
+    <col min="39" max="52" width="59.69921875" customWidth="1"/>
     <col min="53" max="53" width="22" style="14" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="23.5" style="14" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="23.5" style="14" customWidth="1"/>
-    <col min="56" max="56" width="18.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="59.75" style="17" customWidth="1"/>
-    <col min="58" max="76" width="59.75" customWidth="1"/>
-    <col min="77" max="77" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="80" max="86" width="59.75" customWidth="1"/>
-    <col min="87" max="87" width="30.25" customWidth="1"/>
-    <col min="88" max="88" width="34.25" customWidth="1"/>
-    <col min="89" max="89" width="36.25" customWidth="1"/>
-    <col min="90" max="90" width="29.875" customWidth="1"/>
-    <col min="91" max="91" width="35.25" customWidth="1"/>
-    <col min="92" max="92" width="32.125" customWidth="1"/>
-    <col min="93" max="93" width="32.625" customWidth="1"/>
+    <col min="56" max="56" width="18.19921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="59.69921875" style="17" customWidth="1"/>
+    <col min="58" max="76" width="59.69921875" customWidth="1"/>
+    <col min="77" max="77" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="80" max="86" width="59.69921875" customWidth="1"/>
+    <col min="87" max="87" width="30.19921875" customWidth="1"/>
+    <col min="88" max="88" width="34.19921875" customWidth="1"/>
+    <col min="89" max="89" width="36.19921875" customWidth="1"/>
+    <col min="90" max="90" width="29.8984375" customWidth="1"/>
+    <col min="91" max="91" width="35.19921875" customWidth="1"/>
+    <col min="92" max="92" width="32.09765625" customWidth="1"/>
+    <col min="93" max="93" width="32.59765625" customWidth="1"/>
     <col min="94" max="94" width="34.5" customWidth="1"/>
-    <col min="95" max="95" width="35.125" customWidth="1"/>
-    <col min="96" max="96" width="38.375" customWidth="1"/>
-    <col min="97" max="97" width="35.25" customWidth="1"/>
-    <col min="98" max="98" width="41.125" customWidth="1"/>
+    <col min="95" max="95" width="35.09765625" customWidth="1"/>
+    <col min="96" max="96" width="38.3984375" customWidth="1"/>
+    <col min="97" max="97" width="35.19921875" customWidth="1"/>
+    <col min="98" max="98" width="41.09765625" customWidth="1"/>
     <col min="99" max="99" width="31.5" customWidth="1"/>
-    <col min="100" max="100" width="14.75" customWidth="1"/>
-    <col min="101" max="101" width="9.25" customWidth="1"/>
-    <col min="102" max="102" width="19.25" style="17" customWidth="1"/>
-    <col min="103" max="103" width="36.25" style="4" customWidth="1"/>
-    <col min="104" max="104" width="24.875" customWidth="1"/>
-    <col min="105" max="105" width="31.625" customWidth="1"/>
-    <col min="106" max="106" width="23.375" customWidth="1"/>
-    <col min="107" max="107" width="21.75" style="11" customWidth="1"/>
-    <col min="108" max="108" width="17.25" style="11" customWidth="1"/>
+    <col min="100" max="100" width="14.69921875" customWidth="1"/>
+    <col min="101" max="101" width="9.19921875" customWidth="1"/>
+    <col min="102" max="102" width="19.19921875" style="17" customWidth="1"/>
+    <col min="103" max="103" width="36.19921875" style="4" customWidth="1"/>
+    <col min="104" max="104" width="24.8984375" customWidth="1"/>
+    <col min="105" max="105" width="31.59765625" customWidth="1"/>
+    <col min="106" max="106" width="23.3984375" customWidth="1"/>
+    <col min="107" max="107" width="21.69921875" style="11" customWidth="1"/>
+    <col min="108" max="108" width="17.19921875" style="11" customWidth="1"/>
     <col min="109" max="109" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" s="39" customFormat="1" ht="72">
+    <row r="1" spans="1:109" s="39" customFormat="1" ht="69.599999999999994">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="2" spans="1:109" s="26" customFormat="1" ht="200.25">
+    <row r="2" spans="1:109" s="26" customFormat="1" ht="193.8">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="3" spans="1:109" s="8" customFormat="1" ht="43.5">
+    <row r="3" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:109" s="8" customFormat="1" ht="43.5">
+    <row r="4" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="5" spans="1:109" s="8" customFormat="1" ht="157.5">
+    <row r="5" spans="1:109" s="8" customFormat="1" ht="152.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="6" spans="1:109" s="8" customFormat="1" ht="57.75">
+    <row r="6" spans="1:109" s="8" customFormat="1" ht="55.8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="7" spans="1:109" ht="144" thickBot="1">
+    <row r="7" spans="1:109" ht="139.19999999999999" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="10" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="10" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="11" spans="1:109" ht="129">
+    <row r="11" spans="1:109" ht="124.8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="12" spans="1:109" s="8" customFormat="1" ht="43.5">
+    <row r="12" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="13" spans="1:109" ht="57.75">
+    <row r="13" spans="1:109" ht="55.8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="14" spans="1:109" s="8" customFormat="1" ht="143.25">
+    <row r="14" spans="1:109" s="8" customFormat="1" ht="124.8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:109" s="8" customFormat="1" ht="100.5">
+    <row r="15" spans="1:109" s="8" customFormat="1" ht="97.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="16" spans="1:109" s="8" customFormat="1" ht="57.75">
+    <row r="16" spans="1:109" s="8" customFormat="1" ht="55.8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="17" spans="1:109" s="8" customFormat="1" ht="46.15" customHeight="1">
+    <row r="17" spans="1:109" s="8" customFormat="1" ht="46.2" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="19" spans="1:109" s="8" customFormat="1" ht="52.9" customHeight="1">
+    <row r="19" spans="1:109" s="8" customFormat="1" ht="52.95" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="20" spans="1:109" s="8" customFormat="1" ht="67.900000000000006" customHeight="1">
+    <row r="20" spans="1:109" s="8" customFormat="1" ht="67.95" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="21" spans="1:109" s="8" customFormat="1" ht="72">
+    <row r="21" spans="1:109" s="8" customFormat="1" ht="69.599999999999994">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="22" spans="1:109" s="8" customFormat="1" ht="114.75">
+    <row r="22" spans="1:109" s="8" customFormat="1" ht="111">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="23" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="23" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="24" spans="1:109" s="8" customFormat="1" ht="43.5">
+    <row r="24" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="26" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="26" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="27" spans="1:109" s="8" customFormat="1" ht="57.75">
+    <row r="27" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="28" spans="1:109" s="8" customFormat="1" ht="100.5">
+    <row r="28" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="29" spans="1:109" s="8" customFormat="1" ht="72">
+    <row r="29" spans="1:109" s="8" customFormat="1" ht="69.599999999999994">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="30" spans="1:109" s="8" customFormat="1" ht="114.75">
+    <row r="30" spans="1:109" s="8" customFormat="1" ht="111">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="31" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="31" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="32" spans="1:109" s="8" customFormat="1" ht="43.5">
+    <row r="32" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="33" spans="1:109" s="8" customFormat="1" ht="129">
+    <row r="33" spans="1:109" s="8" customFormat="1" ht="124.8">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="34" spans="1:109" s="8" customFormat="1" ht="72">
+    <row r="34" spans="1:109" s="8" customFormat="1" ht="69.599999999999994">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="35" spans="1:109" s="8" customFormat="1" ht="43.5">
+    <row r="35" spans="1:109" s="8" customFormat="1" ht="42">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="36" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="36" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="40" spans="1:109" s="8" customFormat="1" ht="100.5">
+    <row r="40" spans="1:109" s="8" customFormat="1" ht="97.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="42" spans="1:109" s="8" customFormat="1" ht="89.45" hidden="1" customHeight="1">
+    <row r="42" spans="1:109" s="8" customFormat="1" ht="89.4" hidden="1" customHeight="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="44" spans="1:109" s="8" customFormat="1" ht="74.45" customHeight="1">
+    <row r="44" spans="1:109" s="8" customFormat="1" ht="74.400000000000006" customHeight="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="45" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="45" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="48" spans="1:109" s="8" customFormat="1" ht="129">
+    <row r="48" spans="1:109" s="8" customFormat="1" ht="124.8">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -20727,7 +20727,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="49" spans="1:109" s="8" customFormat="1" ht="72">
+    <row r="49" spans="1:109" s="8" customFormat="1" ht="69.599999999999994">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="53" spans="1:109" s="8" customFormat="1" ht="59.45" customHeight="1">
+    <row r="53" spans="1:109" s="8" customFormat="1" ht="59.4" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="54" spans="1:109" s="8" customFormat="1" ht="129">
+    <row r="54" spans="1:109" s="8" customFormat="1" ht="124.8">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="57" spans="1:109" s="8" customFormat="1" ht="114.75">
+    <row r="57" spans="1:109" s="8" customFormat="1" ht="111">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="59" spans="1:109" s="8" customFormat="1" ht="100.5">
+    <row r="59" spans="1:109" s="8" customFormat="1" ht="97.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="60" spans="1:109" s="8" customFormat="1" ht="29.25">
+    <row r="60" spans="1:109" s="8" customFormat="1" ht="28.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -24675,7 +24675,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="61" spans="1:109" s="8" customFormat="1" ht="72">
+    <row r="61" spans="1:109" s="8" customFormat="1" ht="69.599999999999994">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -25004,7 +25004,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="62" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="62" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -25333,7 +25333,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="63" spans="1:109" s="8" customFormat="1" ht="100.5">
+    <row r="63" spans="1:109" s="8" customFormat="1" ht="97.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="64" spans="1:109" s="8" customFormat="1" ht="169.9" customHeight="1">
+    <row r="64" spans="1:109" s="8" customFormat="1" ht="169.95" customHeight="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="65" spans="1:109" s="8" customFormat="1" ht="72">
+    <row r="65" spans="1:109" s="8" customFormat="1" ht="55.8">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="67" spans="1:109" s="8" customFormat="1" ht="43.15" customHeight="1">
+    <row r="67" spans="1:109" s="8" customFormat="1" ht="43.2" customHeight="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="68" spans="1:109" s="8" customFormat="1" ht="233.45" customHeight="1">
+    <row r="68" spans="1:109" s="8" customFormat="1" ht="233.4" customHeight="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="69" spans="1:109" s="8" customFormat="1" ht="143.25">
+    <row r="69" spans="1:109" s="8" customFormat="1" ht="124.8">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="70" spans="1:109" s="8" customFormat="1" ht="91.9" customHeight="1">
+    <row r="70" spans="1:109" s="8" customFormat="1" ht="91.95" customHeight="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="72" spans="1:109" s="8" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="72" spans="1:109" s="8" customFormat="1" ht="38.4" customHeight="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -28615,7 +28615,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="73" spans="1:109" s="8" customFormat="1" ht="157.15" customHeight="1">
+    <row r="73" spans="1:109" s="8" customFormat="1" ht="157.19999999999999" customHeight="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -28942,7 +28942,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="74" spans="1:109" s="8" customFormat="1" ht="55.9" customHeight="1">
+    <row r="74" spans="1:109" s="8" customFormat="1" ht="55.95" customHeight="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="76" spans="1:109" s="8" customFormat="1" ht="43.9" customHeight="1">
+    <row r="76" spans="1:109" s="8" customFormat="1" ht="43.95" customHeight="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -30904,7 +30904,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="80" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="80" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -31231,7 +31231,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="81" spans="1:109" s="8" customFormat="1" ht="64.150000000000006" customHeight="1">
+    <row r="81" spans="1:109" s="8" customFormat="1" ht="64.2" customHeight="1">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -32212,7 +32212,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="84" spans="1:109" s="8" customFormat="1" ht="136.9" customHeight="1">
+    <row r="84" spans="1:109" s="8" customFormat="1" ht="136.94999999999999" customHeight="1">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -32866,7 +32866,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="86" spans="1:109" s="8" customFormat="1" ht="53.45" customHeight="1">
+    <row r="86" spans="1:109" s="8" customFormat="1" ht="53.4" customHeight="1">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="87" spans="1:109" s="8" customFormat="1" ht="71.45" customHeight="1">
+    <row r="87" spans="1:109" s="8" customFormat="1" ht="71.400000000000006" customHeight="1">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="89" spans="1:109" s="8" customFormat="1" ht="97.9" customHeight="1">
+    <row r="89" spans="1:109" s="8" customFormat="1" ht="97.95" customHeight="1">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -34174,7 +34174,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="90" spans="1:109" s="8" customFormat="1" ht="125.45" customHeight="1">
+    <row r="90" spans="1:109" s="8" customFormat="1" ht="125.4" customHeight="1">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -34501,7 +34501,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="91" spans="1:109" s="8" customFormat="1" ht="74.45" customHeight="1">
+    <row r="91" spans="1:109" s="8" customFormat="1" ht="74.400000000000006" customHeight="1">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -35155,7 +35155,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="93" spans="1:109" s="8" customFormat="1" ht="43.9" customHeight="1">
+    <row r="93" spans="1:109" s="8" customFormat="1" ht="43.95" customHeight="1">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -35482,7 +35482,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="94" spans="1:109" s="8" customFormat="1" ht="53.45" customHeight="1">
+    <row r="94" spans="1:109" s="8" customFormat="1" ht="53.4" customHeight="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -35809,7 +35809,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="95" spans="1:109" s="8" customFormat="1" ht="49.15" customHeight="1">
+    <row r="95" spans="1:109" s="8" customFormat="1" ht="49.2" customHeight="1">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -36136,7 +36136,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:109" s="8" customFormat="1" ht="43.9" customHeight="1">
+    <row r="96" spans="1:109" s="8" customFormat="1" ht="43.95" customHeight="1">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -36463,7 +36463,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="97" spans="1:109" s="8" customFormat="1" ht="169.15" customHeight="1">
+    <row r="97" spans="1:109" s="8" customFormat="1" ht="169.2" customHeight="1">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -36790,7 +36790,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="98" spans="1:109" s="8" customFormat="1" ht="86.25">
+    <row r="98" spans="1:109" s="8" customFormat="1" ht="83.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="100" spans="1:109" s="8" customFormat="1" ht="37.15" customHeight="1">
+    <row r="100" spans="1:109" s="8" customFormat="1" ht="37.200000000000003" customHeight="1">
       <c r="A100" s="5">
         <v>99</v>
       </c>
